--- a/data/age-regression/clocks_meta.xlsx
+++ b/data/age-regression/clocks_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\EpImAge\data\age-regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\EpImAge\data\age-regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05CA0B0-8892-473D-A1CC-FA4EB2D17B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76EEBEF-2F0F-413E-A810-00AF1BFA6853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37260" yWindow="1140" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,10 +142,10 @@
     <t>IntrinClock</t>
   </si>
   <si>
-    <t>EpImAge</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>EpInflammAge</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -546,10 +546,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
